--- a/CircleRoom(ステージデータ外部化)/StageData.xlsx
+++ b/CircleRoom(ステージデータ外部化)/StageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom(ステージデータ外部化)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579232B-74A5-4B2A-AF61-25F7B4D57C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42FE3D-0686-48E5-A97B-49E608F66917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -492,6 +492,23 @@
   </si>
   <si>
     <t>Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム更新タイプ</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新で増えるフレーム</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,12 +547,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -548,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,86 +1466,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620EBF3-087F-4C32-81F5-E14C3AD7109A}">
-  <dimension ref="A4:W32"/>
+  <dimension ref="A4:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16" width="15.625" customWidth="1"/>
+    <col min="1" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1525,71 +1563,77 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>600</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1601,105 +1645,111 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
         <v>0</v>
       </c>
       <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>180</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>600</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>300</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1711,85 +1761,91 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>6</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>330</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1801,162 +1857,168 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>600</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>28</v>
       </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
       <c r="N15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>300</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>600</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>34</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>60</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
         <v>7</v>
       </c>
-      <c r="Q16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
         <v>6</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>29</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>3</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>30</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>35</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Y16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>900</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1968,59 +2030,65 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>29</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2032,117 +2100,123 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>3</v>
       </c>
       <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>180</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>960</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>360</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>960</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2154,98 +2228,104 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>240</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>600</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>34</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
         <v>60</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
         <v>7</v>
       </c>
-      <c r="Q25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
         <v>6</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>29</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>3</v>
       </c>
-      <c r="U25" t="s">
+      <c r="W25" t="s">
         <v>30</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>35</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Y25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
+      <c r="C26">
+        <v>15</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="E26" t="s">
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2254,56 +2334,62 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
       <c r="N26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="M27" t="s">
         <v>36</v>
       </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="E28" t="s">
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2315,98 +2401,104 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>35</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>40</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
         <v>55</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
         <v>57</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>-360</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>480</v>
       </c>
     </row>

--- a/CircleRoom(ステージデータ外部化)/StageData.xlsx
+++ b/CircleRoom(ステージデータ外部化)/StageData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom(ステージデータ外部化)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C42FE3D-0686-48E5-A97B-49E608F66917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFCF38E-616A-4E2B-8F57-914FC4F446BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="3855" yWindow="-13410" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
     <sheet name="StageMaster" sheetId="3" r:id="rId2"/>
-    <sheet name="Temp" sheetId="2" r:id="rId3"/>
+    <sheet name="MapMaster" sheetId="4" r:id="rId3"/>
+    <sheet name="Temp" sheetId="2" r:id="rId4"/>
+    <sheet name="StageMaster (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>サークル</t>
     <phoneticPr fontId="1"/>
@@ -508,6 +510,41 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>練習</t>
+    <rPh sb="0" eb="2">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨壁</t>
+    <rPh sb="0" eb="1">
+      <t>キョ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヘキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ列数</t>
+    <rPh sb="4" eb="6">
+      <t>レツスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ行数</t>
+    <rPh sb="4" eb="6">
+      <t>ギョウスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +583,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -570,17 +619,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1466,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620EBF3-087F-4C32-81F5-E14C3AD7109A}">
-  <dimension ref="A4:Y32"/>
+  <dimension ref="A4:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1478,7 +1587,7 @@
     <col min="1" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1534,386 +1643,404 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>300</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>600</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E8" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>180</v>
-      </c>
-      <c r="J8">
-        <v>600</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
       </c>
       <c r="J9">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J10">
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" t="s">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>330</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
       <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>600</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
@@ -1924,581 +2051,613 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>600</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>60</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>7</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W16" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>600</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>60</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>900</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>35</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>3</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>29</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>180</v>
-      </c>
-      <c r="J21">
-        <v>960</v>
-      </c>
-      <c r="M21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>360</v>
       </c>
       <c r="J22">
         <v>960</v>
       </c>
       <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>360</v>
+      </c>
+      <c r="J23">
+        <v>960</v>
+      </c>
+      <c r="M23" t="s">
         <v>56</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E23" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
         <v>55</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
         <v>35</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E25" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>240</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>600</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
         <v>34</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>3</v>
       </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
         <v>60</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>7</v>
       </c>
-      <c r="S25" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="S26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
         <v>6</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U26" t="s">
         <v>29</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V26" t="s">
         <v>3</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W26" t="s">
         <v>30</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X26" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>15</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="M27" t="s">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="M28" t="s">
         <v>36</v>
       </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>35</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>390</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>720</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
         <v>57</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>-360</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>480</v>
       </c>
     </row>
@@ -2510,6 +2669,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59694C2A-C074-4671-B381-9D646413CE26}">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="19" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785EB06A-9B26-49DF-86D9-968647D32524}">
   <dimension ref="B1:G15"/>
   <sheetViews>
@@ -2654,4 +2949,831 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF627D7C-DA05-4030-BD16-40BE9B431465}">
+  <dimension ref="A4:U33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="15" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>300</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>180</v>
+      </c>
+      <c r="J9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>180</v>
+      </c>
+      <c r="J22">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>360</v>
+      </c>
+      <c r="J23">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>240</v>
+      </c>
+      <c r="J26">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>-360</v>
+      </c>
+      <c r="J33">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CircleRoom(ステージデータ外部化)/StageData.xlsx
+++ b/CircleRoom(ステージデータ外部化)/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\CircleRoom(ステージデータ外部化)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFCF38E-616A-4E2B-8F57-914FC4F446BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB98B5-C1D7-47C1-87D0-09ECEC56E2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="-13410" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
+    <workbookView xWindow="2730" yWindow="-14250" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{E82E1E36-96FA-4EA2-80D3-1FAF961285C4}"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -619,58 +619,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,16 +635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,9 +1526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620EBF3-087F-4C32-81F5-E14C3AD7109A}">
   <dimension ref="A4:Y33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2670,10 +2619,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59694C2A-C074-4671-B381-9D646413CE26}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2681,18 +2631,17 @@
     <col min="1" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2953,11 +2902,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF627D7C-DA05-4030-BD16-40BE9B431465}">
-  <dimension ref="A4:U33"/>
+  <dimension ref="A4:U31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2970,34 +2919,34 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
@@ -3017,36 +2966,39 @@
         <v>60</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3055,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3082,32 +3034,32 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>600</v>
       </c>
     </row>
@@ -3116,22 +3068,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3143,66 +3095,66 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>180</v>
-      </c>
-      <c r="J9">
         <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
         <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E11" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
         <v>600</v>
       </c>
     </row>
@@ -3211,22 +3163,22 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3238,374 +3190,439 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>330</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>180</v>
+      </c>
+      <c r="H21">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>360</v>
+      </c>
+      <c r="H22">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>240</v>
+      </c>
+      <c r="H25">
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>300</v>
-      </c>
-      <c r="J17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="T26" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>180</v>
-      </c>
-      <c r="J22">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>360</v>
-      </c>
-      <c r="J23">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="U26" t="s">
         <v>36</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>240</v>
-      </c>
-      <c r="J26">
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>4</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3620,154 +3637,89 @@
         <v>1</v>
       </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>60</v>
-      </c>
-      <c r="N27">
-        <v>7</v>
-      </c>
-      <c r="O27" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" t="s">
-        <v>35</v>
-      </c>
-      <c r="U27" t="s">
-        <v>36</v>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E30" t="s">
-        <v>26</v>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>240</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E31" t="s">
-        <v>31</v>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>-360</v>
       </c>
       <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>-360</v>
-      </c>
-      <c r="J33">
         <v>480</v>
       </c>
     </row>
